--- a/LubanTmpl/Datas/__enums__.xlsx
+++ b/LubanTmpl/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Thirds\XIHFrameWork\LubanTmpl\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A678D41-448D-4CAA-B819-0A0971215024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193099AA-B443-4814-A115-59B82F20F007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29850" yWindow="720" windowWidth="27750" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="630" windowWidth="21645" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -77,48 +77,13 @@
   </si>
   <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Stack</t>
-  </si>
-  <si>
-    <t>Popup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modal</t>
-  </si>
-  <si>
-    <t>TopMost</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>全屏栈窗口</t>
-  </si>
-  <si>
-    <t>弹出式子窗口</t>
-  </si>
-  <si>
-    <t>模态弹出框</t>
-  </si>
-  <si>
-    <t>顶层窗口(如Loading)</t>
-  </si>
-  <si>
-    <t>UI.Mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,14 +93,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -185,7 +142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,9 +151,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -476,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -517,13 +471,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -580,54 +534,6 @@
         <v>18</v>
       </c>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/LubanTmpl/Datas/__enums__.xlsx
+++ b/LubanTmpl/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Thirds\XIHFrameWork\LubanTmpl\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193099AA-B443-4814-A115-59B82F20F007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62641DA-8E02-48BF-B471-F6C8AB1C4672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="630" windowWidth="21645" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17895" yWindow="1125" windowWidth="28830" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -77,13 +77,38 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Popup</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>TopMost</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-主窗口，2-弹出窗口，3-模态窗口，4-顶层窗口 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +118,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -142,7 +175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,6 +187,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,6 +571,42 @@
       </c>
       <c r="L3" s="1"/>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/LubanTmpl/Datas/__enums__.xlsx
+++ b/LubanTmpl/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Thirds\XIHFrameWork\LubanTmpl\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62641DA-8E02-48BF-B471-F6C8AB1C4672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A895F07-4A07-4633-B513-5C2907D5FF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17895" yWindow="1125" windowWidth="28830" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27825" yWindow="915" windowWidth="28830" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>全名(包含模块和名字)</t>
   </si>
   <si>
-    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
-  </si>
-  <si>
     <t>枚举项是否唯一</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">1-主窗口，2-弹出窗口，3-模态窗口，4-顶层窗口 </t>
+  </si>
+  <si>
+    <t>是否为标志类（即每个枚举项为位标记，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
   </si>
 </sst>
 </file>
@@ -132,41 +132,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -175,21 +154,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +442,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,125 +459,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
